--- a/biology/Zoologie/Drôles_d'oiseaux_(film,_2011)/Drôles_d'oiseaux_(film,_2011).xlsx
+++ b/biology/Zoologie/Drôles_d'oiseaux_(film,_2011)/Drôles_d'oiseaux_(film,_2011).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_d%27oiseaux_(film,_2011)</t>
+          <t>Drôles_d'oiseaux_(film,_2011)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drôles d'oiseaux (The Big Year), ou La Grande Année au Québec, est un film américain réalisé par David Frankel, sorti en salles le 14 octobre 2011 aux États-Unis et au Canada et le 19 septembre 2012 en France et qui fut un énorme échec commercial.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_d%27oiseaux_(film,_2011)</t>
+          <t>Drôles_d'oiseaux_(film,_2011)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois passionnés d'ornithologie se lancent le défi de repérer le plus d'espèces d'oiseaux des États-Unis en un an dans le cadre d'un concours.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_d%27oiseaux_(film,_2011)</t>
+          <t>Drôles_d'oiseaux_(film,_2011)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre original : The Big Year
-Titre français : Drôles d'oiseaux (titre donné en France pour la sortie en DVD[1] et Blu-ray[2])
+Titre français : Drôles d'oiseaux (titre donné en France pour la sortie en DVD et Blu-ray)
 Titre québécois : La grande année
 Réalisation : David Frankel
 Scénario : Howard Franklin, d'après le livre de Mark Obmascik
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_d%27oiseaux_(film,_2011)</t>
+          <t>Drôles_d'oiseaux_(film,_2011)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Steve Martin (VFB : Patrick Donnay ; VQ : Jean-Luc Montminy) : Stu Preissler
 Jack Black (VFB : Thierry Janssen ; VQ : Stéphane Rivard) : Brad Harris
@@ -619,7 +637,7 @@
 Kevin Pollak (VFB : Jean-Pierre Denuit ; VQ : Manuel Tadros) : Jim Gittelson
 Barry Shabaka Henley : Dr Neil Kramer
 John Cleese (VFB : Thierry Janssen) : le narrateur (voix)
-Sources et légendes : version française (VF) sur AlloDoublage[3]</t>
+Sources et légendes : version française (VF) sur AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -629,7 +647,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_d%27oiseaux_(film,_2011)</t>
+          <t>Drôles_d'oiseaux_(film,_2011)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,10 +667,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Box-office
-The Big Year a rencontré un énorme échec commercial aux États-Unis, malgré des acteurs confirmés tels que Steve Martin, Jack Black et Owen Wilson et un réalisateur habitué à connaître le succès (David Frankel), puisqu'il a démarré à la neuvième place du box-office et 4,3 millions de dollars de recettes en une semaine, pour une moyenne de 2 009 $ et une combinaison de salles de 2 150 salles, avant de s'effondrer dans les profondeurs du classement les cinq semaines suivantes et de finir sa carrière avec 7,1 millions de dollars de recettes[4].
-En France, ayant bénéficié d'une sortie technique, The Big Year totalise 311 entrées[5].
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Big Year a rencontré un énorme échec commercial aux États-Unis, malgré des acteurs confirmés tels que Steve Martin, Jack Black et Owen Wilson et un réalisateur habitué à connaître le succès (David Frankel), puisqu'il a démarré à la neuvième place du box-office et 4,3 millions de dollars de recettes en une semaine, pour une moyenne de 2 009 $ et une combinaison de salles de 2 150 salles, avant de s'effondrer dans les profondeurs du classement les cinq semaines suivantes et de finir sa carrière avec 7,1 millions de dollars de recettes.
+En France, ayant bénéficié d'une sortie technique, The Big Year totalise 311 entrées.
 </t>
         </is>
       </c>
